--- a/config_5.18/permission_server_config.xlsx
+++ b/config_5.18/permission_server_config.xlsx
@@ -6456,10 +6456,10 @@
     <t>新人限时福利（冲金鸡）</t>
   </si>
   <si>
-    <t>actp_rank_hljnh_015_yxdr_rank</t>
-  </si>
-  <si>
-    <t>游戏达人--非cjj</t>
+    <t>actp_rank_hlwyt_016_fqdr_rank</t>
+  </si>
+  <si>
+    <t>欢乐五月天福气达人</t>
   </si>
   <si>
     <t>actp_rank_cjj_xxlzb_rank</t>
@@ -8738,9 +8738,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -8808,7 +8808,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8822,6 +8822,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -8830,8 +8879,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8846,13 +8896,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -8860,31 +8918,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8905,55 +8948,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="44">
@@ -9079,7 +9079,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9091,7 +9109,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9103,19 +9139,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9127,91 +9199,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9250,16 +9250,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9275,21 +9275,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9346,16 +9331,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9364,136 +9364,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -15077,11 +15077,11 @@
   <dimension ref="A1:O402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D276" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D351" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C290" sqref="C290"/>
+      <selection pane="bottomRight" activeCell="D371" sqref="D371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
